--- a/output/fit_clients/fit_round_312.xlsx
+++ b/output/fit_clients/fit_round_312.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2488314252.509494</v>
+        <v>1556463230.654766</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06952399442732238</v>
+        <v>0.0982289056758138</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03351380695139974</v>
+        <v>0.03828289291555746</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1244157187.541505</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1745667884.045102</v>
+        <v>2283523997.9725</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1416518397664833</v>
+        <v>0.1306282344512587</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04214558259100373</v>
+        <v>0.04146672819918067</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>872833942.701049</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3758945425.996442</v>
+        <v>3486598976.507782</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1307706630416292</v>
+        <v>0.12264932556712</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02451061357917588</v>
+        <v>0.03835233967982348</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>112</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1879472710.097459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3822371818.485516</v>
+        <v>3892500765.251825</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09198290200671513</v>
+        <v>0.1068247277470728</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04890124758749621</v>
+        <v>0.04715121497897902</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>116</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1911185924.664573</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2488924245.204246</v>
+        <v>2555613375.591074</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1071104809387439</v>
+        <v>0.1372987250053225</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05681548610717143</v>
+        <v>0.0362136638461944</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>59</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1244462099.28657</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2000052324.312378</v>
+        <v>2834728182.057748</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06144026095232185</v>
+        <v>0.1002980774850712</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03070922387397998</v>
+        <v>0.03180650900261509</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>98</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1000026223.29377</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2887300392.490196</v>
+        <v>2890121352.676658</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1605797786027168</v>
+        <v>0.1445933530205905</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0202576947576434</v>
+        <v>0.02951681758948477</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>99</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1443650242.240672</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1665256013.699775</v>
+        <v>1487047713.909483</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1779222065440297</v>
+        <v>0.1519084263648742</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02743301979625887</v>
+        <v>0.02574541645454954</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>832628079.9008873</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5139412936.1826</v>
+        <v>4779948323.133924</v>
       </c>
       <c r="F10" t="n">
-        <v>0.167217482104449</v>
+        <v>0.183990161908219</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0417909628321275</v>
+        <v>0.03804150615605813</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>131</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2569706578.204324</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3213787667.928422</v>
+        <v>3501266431.445682</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1649638120767729</v>
+        <v>0.1826330614379882</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0448833095289984</v>
+        <v>0.04565266660580188</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>129</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1606893791.790414</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2721452509.625999</v>
+        <v>2331582181.965532</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1531465575492707</v>
+        <v>0.177448549897811</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04441832046417402</v>
+        <v>0.04641003786036428</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>106</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1360726247.331424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3439133915.366042</v>
+        <v>3576239524.08446</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0762026354930696</v>
+        <v>0.08588238884379827</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02205078453376628</v>
+        <v>0.02374115114658824</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>104</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1719567041.10077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2648982818.626083</v>
+        <v>3398518725.205651</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1732187725967098</v>
+        <v>0.1292528015729321</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02814594368586403</v>
+        <v>0.03855232283093224</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>101</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1324491469.17467</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1507990347.118442</v>
+        <v>1665353661.050537</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0992904825502655</v>
+        <v>0.07291643253086347</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03153234719573128</v>
+        <v>0.0435441443053779</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>753995260.8717922</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2054830523.898198</v>
+        <v>2524885974.941625</v>
       </c>
       <c r="F16" t="n">
-        <v>0.112063886249311</v>
+        <v>0.1114807814567078</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04315572914481737</v>
+        <v>0.03213925067484347</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>60</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1027415332.53433</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4967132102.19865</v>
+        <v>3297684815.699595</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1509449183156304</v>
+        <v>0.1184350887382373</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04376669589188484</v>
+        <v>0.04048528277877797</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>91</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2483566037.888738</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2621295434.046809</v>
+        <v>2496546313.753621</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1416197924119913</v>
+        <v>0.1361193904132484</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02837745528328743</v>
+        <v>0.03015393918872744</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>102</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1310647774.75977</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1251361896.095061</v>
+        <v>842565271.4354941</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1900003798691546</v>
+        <v>0.1916112305248274</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02688660663300244</v>
+        <v>0.01981549415845784</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>625681038.4526682</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2652967851.406899</v>
+        <v>2581133259.339644</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1311003099643639</v>
+        <v>0.108007173558624</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02990455153711546</v>
+        <v>0.02332659081965191</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1326483882.510586</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2155413902.720323</v>
+        <v>1902749930.818158</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08104262680179898</v>
+        <v>0.0800359190166892</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03984311914133314</v>
+        <v>0.03171977993178954</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>27</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1077706972.462245</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3548199692.387565</v>
+        <v>3880837292.664369</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09832697187285223</v>
+        <v>0.1430998382273854</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03567573846219197</v>
+        <v>0.05448464714280252</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>87</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1774099874.900586</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1488570241.129908</v>
+        <v>1334866523.066327</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1725943692993029</v>
+        <v>0.1701355224542963</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04659453250165329</v>
+        <v>0.04790479735328002</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>744285108.4503922</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3150618038.360874</v>
+        <v>3247406225.963715</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1388825317667065</v>
+        <v>0.1081424234023369</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02410295342605964</v>
+        <v>0.029457714276987</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>91</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1575309044.297595</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1472345152.252255</v>
+        <v>1148752717.415706</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0776096341216659</v>
+        <v>0.09642274954910623</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02768495127092308</v>
+        <v>0.02805317155603049</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>736172531.4343445</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>933006252.3292655</v>
+        <v>1033282756.042325</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09832616551751341</v>
+        <v>0.08243785781840804</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03334656041841563</v>
+        <v>0.03075693858286913</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>466503081.8615496</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3531126274.727587</v>
+        <v>3761897256.980462</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1496462263578366</v>
+        <v>0.09662097091437627</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02577236940903722</v>
+        <v>0.0192616710202642</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>77</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1765563170.786667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3898360459.109088</v>
+        <v>2512187098.828817</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1095217041849407</v>
+        <v>0.1179336296396047</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04552694031060454</v>
+        <v>0.03460647160651895</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>99</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1949180318.756708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3714847766.716247</v>
+        <v>4983338384.146934</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1359105391283035</v>
+        <v>0.09427157184826537</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03833525062201787</v>
+        <v>0.03897426044764068</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>138</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1857423920.013126</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1915563626.065318</v>
+        <v>2329526268.871722</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08526502246710845</v>
+        <v>0.09186828587166446</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03137586686512115</v>
+        <v>0.02478608023877583</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>957781840.8794163</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1186793304.226443</v>
+        <v>1041561318.157204</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1071734257872089</v>
+        <v>0.1040664801424297</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04535407067576424</v>
+        <v>0.04675517192528833</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>593396606.6891172</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1174861544.776767</v>
+        <v>1808633491.053931</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07651853423350254</v>
+        <v>0.0946324038427669</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02781939818121655</v>
+        <v>0.02682806738643376</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>587430773.3807973</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2182361135.759301</v>
+        <v>2266687370.567097</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1540879069932878</v>
+        <v>0.1845911586669447</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04141408754376201</v>
+        <v>0.0387922710555367</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>92</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1091180633.144274</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1135676845.908618</v>
+        <v>1421229636.366292</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1095175264413237</v>
+        <v>0.08977508491667495</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01834797735075792</v>
+        <v>0.02322570832317849</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>567838438.5289153</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1307387438.57431</v>
+        <v>1164656549.417846</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09184426735153477</v>
+        <v>0.09505752839131834</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03515162130680333</v>
+        <v>0.04455383256906252</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>653693670.4853573</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3092364277.265446</v>
+        <v>2555485956.349374</v>
       </c>
       <c r="F36" t="n">
-        <v>0.158849083889237</v>
+        <v>0.1451497487726004</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01960219798461854</v>
+        <v>0.01963304310547552</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>78</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1546182113.166865</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1867888680.405419</v>
+        <v>2917950943.295634</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0800430973164814</v>
+        <v>0.1107433084005875</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03602697030323288</v>
+        <v>0.03212496222726931</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>81</v>
-      </c>
-      <c r="J37" t="n">
-        <v>933944349.3517458</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1462657610.642539</v>
+        <v>1946973396.292968</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09569546699797472</v>
+        <v>0.1082571171315215</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02791337338336417</v>
+        <v>0.03948774709084196</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>731328859.8542838</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2168657896.712335</v>
+        <v>1448964563.556378</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1802905752539328</v>
+        <v>0.1517184308521945</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02133911792769716</v>
+        <v>0.03058367008884687</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1084328917.320641</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1643473813.695012</v>
+        <v>1218032165.48632</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1417876435619177</v>
+        <v>0.1573118071661264</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05042137727000006</v>
+        <v>0.05770522748353165</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>821736837.1389902</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2626616621.142111</v>
+        <v>2475335846.959344</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1384264942879344</v>
+        <v>0.1084433981762293</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0333648337668408</v>
+        <v>0.04050388798839563</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>78</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1313308323.458928</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3693901272.613034</v>
+        <v>2769184159.818746</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1167144517174267</v>
+        <v>0.07670673161213831</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03694071581321565</v>
+        <v>0.0443192677122888</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>104</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1846950644.501512</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2892275060.918672</v>
+        <v>1929583519.703715</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1591987193922788</v>
+        <v>0.1937984903505014</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01671313580437278</v>
+        <v>0.01901863739144003</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>112</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1446137539.664342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2095897185.638231</v>
+        <v>1650463325.578207</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09133462486531249</v>
+        <v>0.06738045724044807</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03636914306412795</v>
+        <v>0.03601151008132086</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1047948718.291091</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1951722666.812298</v>
+        <v>1699942490.739303</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1201995782822524</v>
+        <v>0.1250755821490307</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0420314352255715</v>
+        <v>0.05247512729262666</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>975861319.3888327</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4145995083.1021</v>
+        <v>4500841702.398808</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1263493866450859</v>
+        <v>0.1643413330023405</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05413040799755792</v>
+        <v>0.04932199036838068</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>111</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2072997519.457612</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4073808146.741527</v>
+        <v>4022599139.894601</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1466930772669969</v>
+        <v>0.1619130637327237</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04254381441202877</v>
+        <v>0.04888029438517117</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>83</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2036904076.671284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4711405383.034905</v>
+        <v>3256342743.252293</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09999193558612769</v>
+        <v>0.07007985549508758</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02832810181935753</v>
+        <v>0.02696271481898778</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>105</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2355702684.565738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1413503296.76636</v>
+        <v>1624217292.884477</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1746961785314013</v>
+        <v>0.1796712025280405</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04045658240508006</v>
+        <v>0.04051416872136934</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>706751693.8654225</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3230890874.236809</v>
+        <v>3919297667.678029</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1513131177477265</v>
+        <v>0.1260028790199</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04270395433591791</v>
+        <v>0.04689333424571717</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>106</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1615445480.545803</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1356104195.844324</v>
+        <v>1407226964.104718</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1895922568502905</v>
+        <v>0.1184803535020305</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04629985091072472</v>
+        <v>0.03356675525922604</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>678052124.1814535</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3690246105.546223</v>
+        <v>4573202745.660469</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1365460443563095</v>
+        <v>0.1217492565815909</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04267183777354101</v>
+        <v>0.0524772824592285</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>128</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1845123127.484729</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3021712856.307554</v>
+        <v>3367096065.582534</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1930531709176566</v>
+        <v>0.1832959269290964</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02399779825147645</v>
+        <v>0.02958747829854421</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>90</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1510856459.062761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3019060116.361346</v>
+        <v>4790735329.023516</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1257523537906249</v>
+        <v>0.1032132417907776</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04236271538644892</v>
+        <v>0.0517961273232632</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>101</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1509530045.233784</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3671363661.102058</v>
+        <v>4644621800.115752</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1455327301304723</v>
+        <v>0.1916893442977902</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02730111993415037</v>
+        <v>0.02862558011763297</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1835681790.949148</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1709857947.60431</v>
+        <v>1272235297.353467</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1423009837786113</v>
+        <v>0.1604779786486686</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04153522386601868</v>
+        <v>0.05391739297847029</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>854928984.9857376</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3579679494.768985</v>
+        <v>3392778101.42322</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1498155955923834</v>
+        <v>0.1126263002900943</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02676216020150589</v>
+        <v>0.01887003891783063</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>99</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1789839800.463883</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1265798583.972942</v>
+        <v>1201287571.183566</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1324219044076659</v>
+        <v>0.1959123563954062</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02445445031878</v>
+        <v>0.02862867114150782</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>632899344.5088961</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4844593928.687448</v>
+        <v>5351560469.258868</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08152088663172473</v>
+        <v>0.1120482159608618</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03760837346450643</v>
+        <v>0.04524376124738455</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>85</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2422296899.564013</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3273945287.368099</v>
+        <v>2846803036.835485</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1759445473783725</v>
+        <v>0.1936143142400776</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02929796985923437</v>
+        <v>0.03332480311836665</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>98</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1636972742.773213</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2443944790.630604</v>
+        <v>3182262529.150461</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1589586907541952</v>
+        <v>0.1397650657154504</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02697461713109081</v>
+        <v>0.02232425288271337</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>107</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1221972428.224371</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2023576323.842241</v>
+        <v>1495644817.99924</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1569421397789459</v>
+        <v>0.1472432900585683</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04181256701762912</v>
+        <v>0.03487890284395896</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1011788223.542442</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4803149649.719173</v>
+        <v>4906572487.476458</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06524962416176232</v>
+        <v>0.07823546973009431</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03838805458992927</v>
+        <v>0.04346785942139503</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>90</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2401574851.411077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4935897626.292121</v>
+        <v>4196845945.47261</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1160579597294999</v>
+        <v>0.1183032840426412</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02694339260700127</v>
+        <v>0.02620467181747094</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>97</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2467948914.842071</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4501998215.163412</v>
+        <v>6019293819.426539</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1177218412670033</v>
+        <v>0.1474600103774114</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01966255958016306</v>
+        <v>0.02134313596936013</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>112</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2250999096.210519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5656721495.360519</v>
+        <v>5531615709.364326</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1186776009377472</v>
+        <v>0.1488861357534411</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04176002186817394</v>
+        <v>0.03147330354946404</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>91</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2828360810.003284</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2758946190.634559</v>
+        <v>3331516399.459566</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07347630191122421</v>
+        <v>0.06679743961066226</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04936471631279558</v>
+        <v>0.04744577073968869</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>100</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1379473133.959631</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5716710539.109691</v>
+        <v>5610119612.305037</v>
       </c>
       <c r="F68" t="n">
-        <v>0.111426245384638</v>
+        <v>0.1577168059101964</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03393974258144587</v>
+        <v>0.04872941340384073</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>102</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2858355369.376877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1732573378.794533</v>
+        <v>2389264537.00178</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1823779802740121</v>
+        <v>0.1541573627819804</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05067262006192898</v>
+        <v>0.0591278942635124</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>866286659.8028501</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2987930266.413816</v>
+        <v>2497505197.005451</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06861712011785796</v>
+        <v>0.08106289835381751</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0363411964632326</v>
+        <v>0.03272958329453232</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>88</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1493965109.373558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5018628787.776647</v>
+        <v>4948055806.916313</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1552607388018574</v>
+        <v>0.1640139596555136</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02846103742466927</v>
+        <v>0.03182306105349949</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>114</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2509314500.963484</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1438742309.173412</v>
+        <v>2135895714.722755</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09023248608409269</v>
+        <v>0.1030234386605503</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04594584700630479</v>
+        <v>0.03215877800843014</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>719371191.4274013</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2778329721.427301</v>
+        <v>2651262400.603344</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08288869863345534</v>
+        <v>0.09860393073541045</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05127352944126549</v>
+        <v>0.0359101876125968</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>119</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1389164876.996367</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2744974693.874434</v>
+        <v>3267876018.435206</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1550587046100901</v>
+        <v>0.1842007179874931</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02258678769524349</v>
+        <v>0.02374509643640612</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>106</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1372487434.398061</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1721246339.278421</v>
+        <v>1687924423.423542</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1206328625503898</v>
+        <v>0.1491333089789025</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0302831722553326</v>
+        <v>0.02970371074560242</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>860623159.9279631</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3835114412.559263</v>
+        <v>4715475032.056966</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09423496091537707</v>
+        <v>0.1204630295577387</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02577238182327215</v>
+        <v>0.03358589888009783</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1917557184.088108</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1573875364.950852</v>
+        <v>1541531114.049467</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1625613533943486</v>
+        <v>0.1649887961113297</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02761544749576581</v>
+        <v>0.02877229717979334</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>786937681.0350106</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3323712599.292584</v>
+        <v>3284841563.441846</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08456196185326699</v>
+        <v>0.09898604337337964</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03460668765039678</v>
+        <v>0.03840810540924224</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>108</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1661856313.77485</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1716442966.641485</v>
+        <v>1187330209.196667</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1174875658052496</v>
+        <v>0.1479608242767072</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02984582613686655</v>
+        <v>0.03569785480539198</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>858221555.3591851</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5483560553.219392</v>
+        <v>4019308799.373282</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1055650409601791</v>
+        <v>0.08840871238180095</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02836848710556593</v>
+        <v>0.0266494934411855</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>65</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2741780349.868259</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4844044420.069548</v>
+        <v>3609782418.435077</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09962478490860095</v>
+        <v>0.1271851528310797</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03152999867144852</v>
+        <v>0.02811930225440061</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>71</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2422022204.563449</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4078771956.059978</v>
+        <v>4329114380.057735</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2113822703105704</v>
+        <v>0.1550926545637157</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02533511888296338</v>
+        <v>0.02023986574429393</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>109</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2039386013.392428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2470015619.616926</v>
+        <v>1866159033.221211</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1502997333852449</v>
+        <v>0.1149937643955295</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0306658780878553</v>
+        <v>0.0307884659959612</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1235007853.590145</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1908532758.211228</v>
+        <v>1903644888.100251</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1039131769496068</v>
+        <v>0.1171118979444215</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0359606489376863</v>
+        <v>0.03989738145014524</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>954266397.4864886</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2719174010.665177</v>
+        <v>2715337684.565531</v>
       </c>
       <c r="F85" t="n">
-        <v>0.146673635295555</v>
+        <v>0.161470982501634</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0550996270246388</v>
+        <v>0.03549243679316487</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>118</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1359587034.473991</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2772760560.867919</v>
+        <v>2124003521.710953</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1215855771465121</v>
+        <v>0.128767906561494</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0173103496026435</v>
+        <v>0.01719790989806965</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>42</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1386380415.530049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>950426402.0512375</v>
+        <v>922464220.7757808</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1165111036039738</v>
+        <v>0.1415471690006708</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03126126557798651</v>
+        <v>0.03682893472183446</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>475213192.6542506</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3519612184.187962</v>
+        <v>2366095204.390491</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1455852971265527</v>
+        <v>0.1314980869287933</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02999757426581933</v>
+        <v>0.02948779457819516</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>124</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1759806173.897343</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2335884129.014895</v>
+        <v>2438523634.568179</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1373227364071667</v>
+        <v>0.106813680873283</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03916909946390357</v>
+        <v>0.0255656261604447</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>106</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1167942151.313061</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1752153308.182562</v>
+        <v>1442153306.492817</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1200079337398985</v>
+        <v>0.1092865356241987</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03984135944445442</v>
+        <v>0.03727850383007278</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>876076678.9762535</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2040801645.325285</v>
+        <v>1877920511.900317</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1742983082027235</v>
+        <v>0.1489359299148526</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04942033423834723</v>
+        <v>0.04115529014472301</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1020400789.512701</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2863423782.446879</v>
+        <v>2055328191.440371</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09589807426739995</v>
+        <v>0.097862572056368</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03481850882475539</v>
+        <v>0.03676716873832815</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>81</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1431711902.622769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3837062941.806056</v>
+        <v>4768220151.346295</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1038078525091069</v>
+        <v>0.1097447375104838</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03531708952641386</v>
+        <v>0.0369245322010791</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>92</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1918531482.039793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1688909630.490993</v>
+        <v>1620477097.036121</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1170272721542052</v>
+        <v>0.152298944181824</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03607070380979051</v>
+        <v>0.02788268368646352</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>844454773.1602547</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2060807677.048639</v>
+        <v>2094762097.542376</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09699879835907792</v>
+        <v>0.1194909976085897</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04905731285613142</v>
+        <v>0.04883026804430513</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>75</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1030403906.589898</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1773651708.395682</v>
+        <v>1999359384.368003</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09677823081671731</v>
+        <v>0.09889102243984105</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0361630116054823</v>
+        <v>0.04309537185134993</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>886825865.3383099</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5339657219.090173</v>
+        <v>3676861573.436636</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1259048602043361</v>
+        <v>0.1073371426233909</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0205866974801401</v>
+        <v>0.02676204551696692</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>100</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2669828773.668754</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3369357286.213494</v>
+        <v>3095856975.963764</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1116368874541331</v>
+        <v>0.09952453590000676</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02471365124358339</v>
+        <v>0.02706137549401701</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>82</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1684678652.857979</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2366214262.740666</v>
+        <v>2339370289.627525</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1464576588672943</v>
+        <v>0.09620697830043209</v>
       </c>
       <c r="G99" t="n">
-        <v>0.026366904289721</v>
+        <v>0.02607562284850959</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>100</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1183107071.413995</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4220475037.800971</v>
+        <v>3595734653.486127</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1516084144524065</v>
+        <v>0.1361503825652701</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01949442591724154</v>
+        <v>0.02121444054992421</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>95</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2110237607.166461</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3354838109.138091</v>
+        <v>2292585999.432036</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2039327338264122</v>
+        <v>0.1995226430688721</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05541650839185609</v>
+        <v>0.05656002451719166</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>124</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1677419190.526007</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_312.xlsx
+++ b/output/fit_clients/fit_round_312.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1556463230.654766</v>
+        <v>2469685685.584436</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0982289056758138</v>
+        <v>0.1114423896118232</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03828289291555746</v>
+        <v>0.04394158212047762</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2283523997.9725</v>
+        <v>1878319273.736591</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1306282344512587</v>
+        <v>0.1301888454659327</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04146672819918067</v>
+        <v>0.040034361403993</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3486598976.507782</v>
+        <v>3394861592.09672</v>
       </c>
       <c r="F4" t="n">
-        <v>0.12264932556712</v>
+        <v>0.1562416445548164</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03835233967982348</v>
+        <v>0.03779168979570564</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3892500765.251825</v>
+        <v>2673641264.791017</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1068247277470728</v>
+        <v>0.1066252749601965</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04715121497897902</v>
+        <v>0.03279845177540941</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2555613375.591074</v>
+        <v>2685637015.283093</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1372987250053225</v>
+        <v>0.1063254510058815</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0362136638461944</v>
+        <v>0.03883054871544232</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2834728182.057748</v>
+        <v>2662298366.816707</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1002980774850712</v>
+        <v>0.06316741196546924</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03180650900261509</v>
+        <v>0.0467397492287687</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,16 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2890121352.676658</v>
+        <v>2821408033.009479</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1445933530205905</v>
+        <v>0.1475057018340812</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02951681758948477</v>
+        <v>0.02931463056219007</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1487047713.909483</v>
+        <v>1403504176.631557</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1519084263648742</v>
+        <v>0.1433660538282084</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02574541645454954</v>
+        <v>0.02548924564270067</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4779948323.133924</v>
+        <v>3739202193.082359</v>
       </c>
       <c r="F10" t="n">
-        <v>0.183990161908219</v>
+        <v>0.1845261613212125</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03804150615605813</v>
+        <v>0.05112612329398785</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3501266431.445682</v>
+        <v>2854566418.450324</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1826330614379882</v>
+        <v>0.1354490638746259</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04565266660580188</v>
+        <v>0.03661321949428849</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2331582181.965532</v>
+        <v>2883928905.531349</v>
       </c>
       <c r="F12" t="n">
-        <v>0.177448549897811</v>
+        <v>0.1347284380169014</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04641003786036428</v>
+        <v>0.03822983629607925</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3576239524.08446</v>
+        <v>4159528019.934518</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08588238884379827</v>
+        <v>0.09926897610227291</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02374115114658824</v>
+        <v>0.02647617987533664</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3398518725.205651</v>
+        <v>2409282739.229169</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1292528015729321</v>
+        <v>0.1282747846666198</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03855232283093224</v>
+        <v>0.0269687240276694</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1665353661.050537</v>
+        <v>1490810931.056381</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07291643253086347</v>
+        <v>0.09579040260004668</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0435441443053779</v>
+        <v>0.04541854133365385</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2524885974.941625</v>
+        <v>2625841118.131467</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1114807814567078</v>
+        <v>0.08893927493738388</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03213925067484347</v>
+        <v>0.04888332463623844</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3297684815.699595</v>
+        <v>4257043815.202005</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1184350887382373</v>
+        <v>0.1343621398933864</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04048528277877797</v>
+        <v>0.04025238824755983</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2496546313.753621</v>
+        <v>2692060895.458209</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1361193904132484</v>
+        <v>0.149245058813949</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03015393918872744</v>
+        <v>0.02209736155862264</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>842565271.4354941</v>
+        <v>994497141.3837317</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1916112305248274</v>
+        <v>0.1708961170076686</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01981549415845784</v>
+        <v>0.02232447186604207</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2581133259.339644</v>
+        <v>2781239458.354779</v>
       </c>
       <c r="F20" t="n">
-        <v>0.108007173558624</v>
+        <v>0.1114835177235766</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02332659081965191</v>
+        <v>0.02255320946346558</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1902749930.818158</v>
+        <v>2252432462.141042</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0800359190166892</v>
+        <v>0.08298559501583744</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03171977993178954</v>
+        <v>0.03974136382759547</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3880837292.664369</v>
+        <v>2579324074.735569</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1430998382273854</v>
+        <v>0.1209096989485927</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05448464714280252</v>
+        <v>0.05265989362875351</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1334866523.066327</v>
+        <v>1124991059.099916</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1701355224542963</v>
+        <v>0.1257167354658484</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04790479735328002</v>
+        <v>0.04150895276023428</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3247406225.963715</v>
+        <v>2878944951.615569</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1081424234023369</v>
+        <v>0.1057536098312591</v>
       </c>
       <c r="G24" t="n">
-        <v>0.029457714276987</v>
+        <v>0.02799694753784489</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1148752717.415706</v>
+        <v>904334864.1535091</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09642274954910623</v>
+        <v>0.08879985493927553</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02805317155603049</v>
+        <v>0.0276466691402315</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1033282756.042325</v>
+        <v>1278122276.386207</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08243785781840804</v>
+        <v>0.08768536783574375</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03075693858286913</v>
+        <v>0.02999808666142063</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3761897256.980462</v>
+        <v>2930905921.068076</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09662097091437627</v>
+        <v>0.1418651728180044</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0192616710202642</v>
+        <v>0.02229506379244419</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2512187098.828817</v>
+        <v>2742970703.159769</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1179336296396047</v>
+        <v>0.1441995849616097</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03460647160651895</v>
+        <v>0.03277573974596498</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4983338384.146934</v>
+        <v>5739201185.765087</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09427157184826537</v>
+        <v>0.114084940630309</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03897426044764068</v>
+        <v>0.04492074762594936</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2329526268.871722</v>
+        <v>2134331965.17722</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09186828587166446</v>
+        <v>0.1033265329491213</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02478608023877583</v>
+        <v>0.02454232306269104</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1041561318.157204</v>
+        <v>1394606071.974138</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1040664801424297</v>
+        <v>0.08744620423966107</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04675517192528833</v>
+        <v>0.03289629181791526</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1808633491.053931</v>
+        <v>1479611441.024007</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0946324038427669</v>
+        <v>0.07671165384895402</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02682806738643376</v>
+        <v>0.02490628651501637</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2266687370.567097</v>
+        <v>2926066850.620726</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1845911586669447</v>
+        <v>0.131426987925845</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0387922710555367</v>
+        <v>0.05319280671911183</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1421229636.366292</v>
+        <v>1324302584.927192</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08977508491667495</v>
+        <v>0.1139715286690921</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02322570832317849</v>
+        <v>0.0175270684374006</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1164656549.417846</v>
+        <v>1299460824.07903</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09505752839131834</v>
+        <v>0.1023500375211861</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04455383256906252</v>
+        <v>0.02909469359972959</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2555485956.349374</v>
+        <v>2092024247.159425</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1451497487726004</v>
+        <v>0.1245841161394021</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01963304310547552</v>
+        <v>0.02011027261808004</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2917950943.295634</v>
+        <v>2350034599.631525</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1107433084005875</v>
+        <v>0.07683478599421754</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03212496222726931</v>
+        <v>0.03960974808609585</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1946973396.292968</v>
+        <v>2015713757.998352</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1082571171315215</v>
+        <v>0.08325968315230568</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03948774709084196</v>
+        <v>0.03654772340577794</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1448964563.556378</v>
+        <v>1741210268.196128</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1517184308521945</v>
+        <v>0.1286538054846486</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03058367008884687</v>
+        <v>0.02324335430716118</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1218032165.48632</v>
+        <v>1573274317.262215</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1573118071661264</v>
+        <v>0.1238356284521335</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05770522748353165</v>
+        <v>0.04961591563855126</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2475335846.959344</v>
+        <v>2703170739.855532</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1084433981762293</v>
+        <v>0.1667521354130945</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04050388798839563</v>
+        <v>0.04470177100431139</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2769184159.818746</v>
+        <v>4146590564.415098</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07670673161213831</v>
+        <v>0.1248559399904241</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0443192677122888</v>
+        <v>0.03393516573269093</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1929583519.703715</v>
+        <v>2130496001.173081</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1937984903505014</v>
+        <v>0.1687314355735937</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01901863739144003</v>
+        <v>0.02308213550524122</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1650463325.578207</v>
+        <v>1936106238.673911</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06738045724044807</v>
+        <v>0.08210882616560944</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03601151008132086</v>
+        <v>0.02402055809974572</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1699942490.739303</v>
+        <v>1659555716.07911</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1250755821490307</v>
+        <v>0.1858945831191311</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05247512729262666</v>
+        <v>0.04275404206565251</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4500841702.398808</v>
+        <v>4097683232.687393</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1643413330023405</v>
+        <v>0.1426650903092068</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04932199036838068</v>
+        <v>0.04065783804442954</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4022599139.894601</v>
+        <v>5063762804.574729</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1619130637327237</v>
+        <v>0.132802951773289</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04888029438517117</v>
+        <v>0.05409680196561698</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3256342743.252293</v>
+        <v>4694150857.375336</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07007985549508758</v>
+        <v>0.09521341340171496</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02696271481898778</v>
+        <v>0.0370838690483072</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1624217292.884477</v>
+        <v>1474145889.446875</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1796712025280405</v>
+        <v>0.1321480905657284</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04051416872136934</v>
+        <v>0.03947210078683615</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3919297667.678029</v>
+        <v>3250622313.69803</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1260028790199</v>
+        <v>0.1249642218228197</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04689333424571717</v>
+        <v>0.05177350442846329</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1407226964.104718</v>
+        <v>1220979672.786206</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1184803535020305</v>
+        <v>0.1966666482588615</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03356675525922604</v>
+        <v>0.0382770375730971</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4573202745.660469</v>
+        <v>3858895243.867868</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1217492565815909</v>
+        <v>0.09793172657162773</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0524772824592285</v>
+        <v>0.05067924897608119</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3367096065.582534</v>
+        <v>3201136478.94332</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1832959269290964</v>
+        <v>0.1541757674453675</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02958747829854421</v>
+        <v>0.02286426974743779</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4790735329.023516</v>
+        <v>3808209843.700516</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1032132417907776</v>
+        <v>0.1156094739836255</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0517961273232632</v>
+        <v>0.0386200888862328</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4644621800.115752</v>
+        <v>4151135170.154806</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1916893442977902</v>
+        <v>0.2233611486630317</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02862558011763297</v>
+        <v>0.03231739799206976</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,16 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1272235297.353467</v>
+        <v>1631318035.273871</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1604779786486686</v>
+        <v>0.1137308775332917</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05391739297847029</v>
+        <v>0.04002870666646857</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3392778101.42322</v>
+        <v>3788068837.43743</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1126263002900943</v>
+        <v>0.1626087490077843</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01887003891783063</v>
+        <v>0.02027534852187773</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1201287571.183566</v>
+        <v>1609447916.5239</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1959123563954062</v>
+        <v>0.1427907255619611</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02862867114150782</v>
+        <v>0.03699364868017002</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5351560469.258868</v>
+        <v>3787481667.845109</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1120482159608618</v>
+        <v>0.1240111820421123</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04524376124738455</v>
+        <v>0.04741233643338027</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2846803036.835485</v>
+        <v>3563896417.547246</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1936143142400776</v>
+        <v>0.166530367817955</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03332480311836665</v>
+        <v>0.03328092827078166</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3182262529.150461</v>
+        <v>3385149027.438322</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1397650657154504</v>
+        <v>0.1212208358590874</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02232425288271337</v>
+        <v>0.02459320161795301</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1495644817.99924</v>
+        <v>1340705509.2549</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1472432900585683</v>
+        <v>0.1317116032785194</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03487890284395896</v>
+        <v>0.04224198226287496</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4906572487.476458</v>
+        <v>5143641494.500586</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07823546973009431</v>
+        <v>0.08859008579850643</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04346785942139503</v>
+        <v>0.03012691913595543</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4196845945.47261</v>
+        <v>5170235892.295224</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1183032840426412</v>
+        <v>0.1875546181253337</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02620467181747094</v>
+        <v>0.03468879346871391</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6019293819.426539</v>
+        <v>4318633248.751563</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1474600103774114</v>
+        <v>0.1691509259730662</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02134313596936013</v>
+        <v>0.02687195770214338</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5531615709.364326</v>
+        <v>4080845307.153723</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1488861357534411</v>
+        <v>0.1334454233523824</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03147330354946404</v>
+        <v>0.04178999054104982</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3331516399.459566</v>
+        <v>3078616155.775173</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06679743961066226</v>
+        <v>0.1016275611682862</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04744577073968869</v>
+        <v>0.04547091312620532</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5610119612.305037</v>
+        <v>3877870347.666553</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1577168059101964</v>
+        <v>0.1018252801738955</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04872941340384073</v>
+        <v>0.04339951343250719</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2389264537.00178</v>
+        <v>1870530538.916611</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1541573627819804</v>
+        <v>0.1409667992302596</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0591278942635124</v>
+        <v>0.0391725449361162</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2497505197.005451</v>
+        <v>2951874714.697848</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08106289835381751</v>
+        <v>0.09537662273585287</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03272958329453232</v>
+        <v>0.04413040719130111</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4948055806.916313</v>
+        <v>5108353476.575242</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1640139596555136</v>
+        <v>0.1730651681492584</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03182306105349949</v>
+        <v>0.03129961220580438</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2135895714.722755</v>
+        <v>1596527603.167277</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1030234386605503</v>
+        <v>0.0700144797235399</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03215877800843014</v>
+        <v>0.0507641021336691</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2474,16 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2651262400.603344</v>
+        <v>3093074573.331489</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09860393073541045</v>
+        <v>0.1025912144500708</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0359101876125968</v>
+        <v>0.05117503072092382</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3267876018.435206</v>
+        <v>2763930135.031612</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1842007179874931</v>
+        <v>0.1358992225866349</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02374509643640612</v>
+        <v>0.0273564399916977</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1687924423.423542</v>
+        <v>1955874984.170165</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1491333089789025</v>
+        <v>0.1519214067053092</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02970371074560242</v>
+        <v>0.02976808608357374</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4715475032.056966</v>
+        <v>3758819409.511039</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1204630295577387</v>
+        <v>0.09109008249199979</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03358589888009783</v>
+        <v>0.02330759963249667</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1541531114.049467</v>
+        <v>1689895443.859115</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1649887961113297</v>
+        <v>0.1511469212653838</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02877229717979334</v>
+        <v>0.02805905837506806</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3284841563.441846</v>
+        <v>3978278601.613012</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09898604337337964</v>
+        <v>0.1104420689325269</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03840810540924224</v>
+        <v>0.04389555052663695</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1187330209.196667</v>
+        <v>1565394064.587023</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1479608242767072</v>
+        <v>0.1335149485841572</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03569785480539198</v>
+        <v>0.03761344151377521</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4019308799.373282</v>
+        <v>4358532469.580168</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08840871238180095</v>
+        <v>0.07554494064678875</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0266494934411855</v>
+        <v>0.02556378587100087</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3609782418.435077</v>
+        <v>3562563474.947429</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1271851528310797</v>
+        <v>0.1293653284082507</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02811930225440061</v>
+        <v>0.0198881505299797</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4329114380.057735</v>
+        <v>3631288168.30951</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1550926545637157</v>
+        <v>0.2088325175063135</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02023986574429393</v>
+        <v>0.02278852563393254</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1866159033.221211</v>
+        <v>2369045892.879654</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1149937643955295</v>
+        <v>0.1176528916827303</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0307884659959612</v>
+        <v>0.04336237925017738</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1903644888.100251</v>
+        <v>2010956074.238518</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1171118979444215</v>
+        <v>0.1196223417062947</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03989738145014524</v>
+        <v>0.05065632641108187</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2715337684.565531</v>
+        <v>2637446903.278813</v>
       </c>
       <c r="F85" t="n">
-        <v>0.161470982501634</v>
+        <v>0.1160233506140331</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03549243679316487</v>
+        <v>0.03538712609019465</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2124003521.710953</v>
+        <v>1888274392.271202</v>
       </c>
       <c r="F86" t="n">
-        <v>0.128767906561494</v>
+        <v>0.1413747286895511</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01719790989806965</v>
+        <v>0.02555427585047625</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>922464220.7757808</v>
+        <v>1197239028.685666</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1415471690006708</v>
+        <v>0.1243549997265486</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03682893472183446</v>
+        <v>0.04411295065521716</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2366095204.390491</v>
+        <v>2510482924.499868</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1314980869287933</v>
+        <v>0.1230187497068921</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02948779457819516</v>
+        <v>0.02878906178045837</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2438523634.568179</v>
+        <v>2623629238.026492</v>
       </c>
       <c r="F89" t="n">
-        <v>0.106813680873283</v>
+        <v>0.1297120393781675</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0255656261604447</v>
+        <v>0.02894908115705147</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1442153306.492817</v>
+        <v>1897857586.109579</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1092865356241987</v>
+        <v>0.1255826226706899</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03727850383007278</v>
+        <v>0.03703325101031819</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1877920511.900317</v>
+        <v>1893039106.191321</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1489359299148526</v>
+        <v>0.1586003235943388</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04115529014472301</v>
+        <v>0.05225201317135018</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2055328191.440371</v>
+        <v>1851973640.953624</v>
       </c>
       <c r="F92" t="n">
-        <v>0.097862572056368</v>
+        <v>0.07979458600395505</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03676716873832815</v>
+        <v>0.03189849029151057</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4768220151.346295</v>
+        <v>3384528625.845015</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1097447375104838</v>
+        <v>0.1419437608482697</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0369245322010791</v>
+        <v>0.05362551037881852</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1620477097.036121</v>
+        <v>2313215284.643533</v>
       </c>
       <c r="F94" t="n">
-        <v>0.152298944181824</v>
+        <v>0.1204300748545286</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02788268368646352</v>
+        <v>0.03485061981972003</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2094762097.542376</v>
+        <v>2765903504.176993</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1194909976085897</v>
+        <v>0.1235947070635026</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04883026804430513</v>
+        <v>0.03975670590561173</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1999359384.368003</v>
+        <v>1955917662.924118</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09889102243984105</v>
+        <v>0.09141536316279532</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04309537185134993</v>
+        <v>0.03921635436445846</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3676861573.436636</v>
+        <v>4260034399.885708</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1073371426233909</v>
+        <v>0.1463913573479276</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02676204551696692</v>
+        <v>0.02717184475959918</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3095856975.963764</v>
+        <v>3468837482.831621</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09952453590000676</v>
+        <v>0.122333943348089</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02706137549401701</v>
+        <v>0.03083294508095986</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2339370289.627525</v>
+        <v>3333306647.373053</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09620697830043209</v>
+        <v>0.1414541253962219</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02607562284850959</v>
+        <v>0.02292201569826587</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3595734653.486127</v>
+        <v>3196379280.642994</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1361503825652701</v>
+        <v>0.158091770520288</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02121444054992421</v>
+        <v>0.02658499272990251</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2292585999.432036</v>
+        <v>2765382789.691106</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1995226430688721</v>
+        <v>0.1461852939265463</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05656002451719166</v>
+        <v>0.03886051210194989</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_312.xlsx
+++ b/output/fit_clients/fit_round_312.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2469685685.584436</v>
+        <v>1929632836.564202</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1114423896118232</v>
+        <v>0.08009058377011635</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04394158212047762</v>
+        <v>0.03739454306812434</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1878319273.736591</v>
+        <v>2118689206.728148</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1301888454659327</v>
+        <v>0.1584149577907766</v>
       </c>
       <c r="G3" t="n">
-        <v>0.040034361403993</v>
+        <v>0.03942649631450888</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3394861592.09672</v>
+        <v>3196942951.815322</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1562416445548164</v>
+        <v>0.1553849710348378</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03779168979570564</v>
+        <v>0.03687572381227892</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>164</v>
+      </c>
+      <c r="J4" t="n">
+        <v>311</v>
+      </c>
+      <c r="K4" t="n">
+        <v>46.97604493158909</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2673641264.791017</v>
+        <v>3123553756.434469</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1066252749601965</v>
+        <v>0.0904594490384555</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03279845177540941</v>
+        <v>0.03549083244099703</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>125</v>
+      </c>
+      <c r="J5" t="n">
+        <v>307</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2685637015.283093</v>
+        <v>1880897099.00288</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1063254510058815</v>
+        <v>0.1034475657084785</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03883054871544232</v>
+        <v>0.03747140421207111</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2662298366.816707</v>
+        <v>2984098407.871457</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06316741196546924</v>
+        <v>0.0703975869370784</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0467397492287687</v>
+        <v>0.0465420111981187</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2821408033.009479</v>
+        <v>2546056753.057558</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1475057018340812</v>
+        <v>0.1796607584392221</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02931463056219007</v>
+        <v>0.02863111575240387</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>84</v>
+      </c>
+      <c r="J8" t="n">
+        <v>309</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1403504176.631557</v>
+        <v>1980208095.165178</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1433660538282084</v>
+        <v>0.1756469993465709</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02548924564270067</v>
+        <v>0.02821167826702992</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3739202193.082359</v>
+        <v>5268335682.725392</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1845261613212125</v>
+        <v>0.1764421182957974</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05112612329398785</v>
+        <v>0.03290461574219056</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>274</v>
+      </c>
+      <c r="J10" t="n">
+        <v>311</v>
+      </c>
+      <c r="K10" t="n">
+        <v>77.17441402531783</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2854566418.450324</v>
+        <v>3567328231.160717</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1354490638746259</v>
+        <v>0.1773781872284171</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03661321949428849</v>
+        <v>0.03311146314952265</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>124</v>
+      </c>
+      <c r="J11" t="n">
+        <v>312</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2883928905.531349</v>
+        <v>2881030958.924644</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1347284380169014</v>
+        <v>0.1488430706793658</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03822983629607925</v>
+        <v>0.04483317267258136</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4159528019.934518</v>
+        <v>5206943596.476604</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09926897610227291</v>
+        <v>0.1017219285370819</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02647617987533664</v>
+        <v>0.02858893181561541</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>161</v>
+      </c>
+      <c r="J13" t="n">
+        <v>312</v>
+      </c>
+      <c r="K13" t="n">
+        <v>79.65853068361723</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2409282739.229169</v>
+        <v>2989662391.827949</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1282747846666198</v>
+        <v>0.1509152425113273</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0269687240276694</v>
+        <v>0.03830401039706297</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>65</v>
+      </c>
+      <c r="J14" t="n">
+        <v>310</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1490810931.056381</v>
+        <v>1807112491.650808</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09579040260004668</v>
+        <v>0.09487841511223785</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04541854133365385</v>
+        <v>0.04295268803907908</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2625841118.131467</v>
+        <v>1864425940.577868</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08893927493738388</v>
+        <v>0.09484784009213505</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04888332463623844</v>
+        <v>0.04864175818630571</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4257043815.202005</v>
+        <v>4691589356.038189</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1343621398933864</v>
+        <v>0.1065683094325297</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04025238824755983</v>
+        <v>0.04174070741960005</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>147</v>
+      </c>
+      <c r="J17" t="n">
+        <v>311</v>
+      </c>
+      <c r="K17" t="n">
+        <v>76.41669343457895</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1069,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2692060895.458209</v>
+        <v>2834732713.085584</v>
       </c>
       <c r="F18" t="n">
-        <v>0.149245058813949</v>
+        <v>0.1573088430111386</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02209736155862264</v>
+        <v>0.02935594421140012</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>77</v>
+      </c>
+      <c r="J18" t="n">
+        <v>309</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>994497141.3837317</v>
+        <v>992544857.7426686</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1708961170076686</v>
+        <v>0.1494393100557558</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02232447186604207</v>
+        <v>0.02039853507184992</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2781239458.354779</v>
+        <v>1914044848.193871</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1114835177235766</v>
+        <v>0.1609054638875025</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02255320946346558</v>
+        <v>0.02341375002501318</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2252432462.141042</v>
+        <v>1988962680.334632</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08298559501583744</v>
+        <v>0.09966056270187691</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03974136382759547</v>
+        <v>0.03812588070444189</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2579324074.735569</v>
+        <v>2645678710.231563</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1209096989485927</v>
+        <v>0.1359882880311577</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05265989362875351</v>
+        <v>0.03969277187415027</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>84</v>
+      </c>
+      <c r="J22" t="n">
+        <v>309</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1124991059.099916</v>
+        <v>1271918256.236288</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1257167354658484</v>
+        <v>0.1191224454193453</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04150895276023428</v>
+        <v>0.0535628603282691</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2878944951.615569</v>
+        <v>3678717005.855464</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1057536098312591</v>
+        <v>0.1466331559030495</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02799694753784489</v>
+        <v>0.02944244452067283</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>92</v>
+      </c>
+      <c r="J24" t="n">
+        <v>312</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>904334864.1535091</v>
+        <v>1336587625.165905</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08879985493927553</v>
+        <v>0.1096726652913854</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0276466691402315</v>
+        <v>0.02240127872529407</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1278122276.386207</v>
+        <v>1349881298.939096</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08768536783574375</v>
+        <v>0.1199296952610686</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02999808666142063</v>
+        <v>0.03570095288428286</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1384,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2930905921.068076</v>
+        <v>3717287594.232084</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1418651728180044</v>
+        <v>0.1238482599386005</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02229506379244419</v>
+        <v>0.02720187297929287</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>129</v>
+      </c>
+      <c r="J27" t="n">
+        <v>312</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2742970703.159769</v>
+        <v>2473734304.447379</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1441995849616097</v>
+        <v>0.114589604762898</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03277573974596498</v>
+        <v>0.04212504231961329</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>66</v>
+      </c>
+      <c r="J28" t="n">
+        <v>309</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1454,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5739201185.765087</v>
+        <v>5640366177.3121</v>
       </c>
       <c r="F29" t="n">
-        <v>0.114084940630309</v>
+        <v>0.1470961618806511</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04492074762594936</v>
+        <v>0.03155955469076933</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>291</v>
+      </c>
+      <c r="J29" t="n">
+        <v>312</v>
+      </c>
+      <c r="K29" t="n">
+        <v>77.96113652182959</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2134331965.17722</v>
+        <v>2041584890.071309</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1033265329491213</v>
+        <v>0.1115604339139331</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02454232306269104</v>
+        <v>0.0378309292273586</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1394606071.974138</v>
+        <v>1241208958.736928</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08744620423966107</v>
+        <v>0.1020856703934512</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03289629181791526</v>
+        <v>0.0475434576430027</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1479611441.024007</v>
+        <v>1689330090.560117</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07671165384895402</v>
+        <v>0.1072185835313874</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02490628651501637</v>
+        <v>0.02670820733118442</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2926066850.620726</v>
+        <v>2074457765.501317</v>
       </c>
       <c r="F33" t="n">
-        <v>0.131426987925845</v>
+        <v>0.1979920181718067</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05319280671911183</v>
+        <v>0.04297964256877379</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1324302584.927192</v>
+        <v>1240945316.613089</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1139715286690921</v>
+        <v>0.09631808083862164</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0175270684374006</v>
+        <v>0.02818316084574498</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1666,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1299460824.07903</v>
+        <v>1357491087.341523</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1023500375211861</v>
+        <v>0.07161366835831447</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02909469359972959</v>
+        <v>0.02926916570984904</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2092024247.159425</v>
+        <v>2115900861.142827</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1245841161394021</v>
+        <v>0.1419499672952779</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02011027261808004</v>
+        <v>0.02244656815816456</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2350034599.631525</v>
+        <v>2668525115.531594</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07683478599421754</v>
+        <v>0.0810426007049323</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03960974808609585</v>
+        <v>0.03607894735925539</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2015713757.998352</v>
+        <v>1485935849.690427</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08325968315230568</v>
+        <v>0.1138249453397585</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03654772340577794</v>
+        <v>0.03822238616634976</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1806,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1741210268.196128</v>
+        <v>1958284081.302803</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1286538054846486</v>
+        <v>0.1700946552923042</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02324335430716118</v>
+        <v>0.03144152310075311</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1573274317.262215</v>
+        <v>1512614837.846391</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1238356284521335</v>
+        <v>0.1047293215995151</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04961591563855126</v>
+        <v>0.04653706832497918</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2703170739.855532</v>
+        <v>2416139731.886424</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1667521354130945</v>
+        <v>0.1065437978791638</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04470177100431139</v>
+        <v>0.03905182824123367</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4146590564.415098</v>
+        <v>2784179826.404405</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1248559399904241</v>
+        <v>0.124277615599576</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03393516573269093</v>
+        <v>0.02836163727426465</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>129</v>
+      </c>
+      <c r="J42" t="n">
+        <v>310</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2130496001.173081</v>
+        <v>2830875725.697278</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1687314355735937</v>
+        <v>0.1633767942793965</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02308213550524122</v>
+        <v>0.01681576726583491</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1936106238.673911</v>
+        <v>1723761771.583243</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08210882616560944</v>
+        <v>0.1002988716125492</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02402055809974572</v>
+        <v>0.03488139522015681</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2016,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1659555716.07911</v>
+        <v>1795582386.017451</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1858945831191311</v>
+        <v>0.1414050118177311</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04275404206565251</v>
+        <v>0.04666917749054088</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2045,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4097683232.687393</v>
+        <v>5491295507.974656</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1426650903092068</v>
+        <v>0.1118696409197854</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04065783804442954</v>
+        <v>0.05126884549111003</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>187</v>
+      </c>
+      <c r="J46" t="n">
+        <v>312</v>
+      </c>
+      <c r="K46" t="n">
+        <v>79.17642648926393</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2082,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5063762804.574729</v>
+        <v>3269002569.351098</v>
       </c>
       <c r="F47" t="n">
-        <v>0.132802951773289</v>
+        <v>0.1721247825046337</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05409680196561698</v>
+        <v>0.04785422561884122</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>139</v>
+      </c>
+      <c r="J47" t="n">
+        <v>311</v>
+      </c>
+      <c r="K47" t="n">
+        <v>44.59397148529372</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4694150857.375336</v>
+        <v>4435994607.724123</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09521341340171496</v>
+        <v>0.09237218810254677</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0370838690483072</v>
+        <v>0.03768377799819237</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>156</v>
+      </c>
+      <c r="J48" t="n">
+        <v>312</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1474145889.446875</v>
+        <v>1806899288.238591</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1321480905657284</v>
+        <v>0.1348170810964247</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03947210078683615</v>
+        <v>0.02738127814759148</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2195,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3250622313.69803</v>
+        <v>3014011951.544053</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1249642218228197</v>
+        <v>0.1367131030478679</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05177350442846329</v>
+        <v>0.04600520941176092</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>99</v>
+      </c>
+      <c r="J50" t="n">
+        <v>310</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1220979672.786206</v>
+        <v>1258662792.365607</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1966666482588615</v>
+        <v>0.1241296970360856</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0382770375730971</v>
+        <v>0.04621492595632043</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2265,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3858895243.867868</v>
+        <v>3889407600.745154</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09793172657162773</v>
+        <v>0.09069103443307504</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05067924897608119</v>
+        <v>0.05915329309418006</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>190</v>
+      </c>
+      <c r="J52" t="n">
+        <v>312</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3201136478.94332</v>
+        <v>2604656132.674523</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1541757674453675</v>
+        <v>0.204147999283087</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02286426974743779</v>
+        <v>0.02600082905319977</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>43</v>
+      </c>
+      <c r="J53" t="n">
+        <v>306</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2329,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3808209843.700516</v>
+        <v>4049649707.593947</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1156094739836255</v>
+        <v>0.1348911372613883</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0386200888862328</v>
+        <v>0.04859404926415557</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>163</v>
+      </c>
+      <c r="J54" t="n">
+        <v>312</v>
+      </c>
+      <c r="K54" t="n">
+        <v>80.40409928318122</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2366,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4151135170.154806</v>
+        <v>4917107717.295593</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2233611486630317</v>
+        <v>0.2008159698374022</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03231739799206976</v>
+        <v>0.03101168535227475</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>144</v>
+      </c>
+      <c r="J55" t="n">
+        <v>312</v>
+      </c>
+      <c r="K55" t="n">
+        <v>80.49589339860322</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1631318035.273871</v>
+        <v>1827503518.464723</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1137308775332917</v>
+        <v>0.12870345244933</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04002870666646857</v>
+        <v>0.04921009657293725</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2444,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3788068837.43743</v>
+        <v>3276349003.410989</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1626087490077843</v>
+        <v>0.1122691988580653</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02027534852187773</v>
+        <v>0.02738346614667468</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>128</v>
+      </c>
+      <c r="J57" t="n">
+        <v>312</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1609447916.5239</v>
+        <v>1771376430.509828</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1427907255619611</v>
+        <v>0.1716572901816884</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03699364868017002</v>
+        <v>0.0341420494614976</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3787481667.845109</v>
+        <v>4405276034.979813</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1240111820421123</v>
+        <v>0.1238153386093698</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04741233643338027</v>
+        <v>0.04457833199021449</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>151</v>
+      </c>
+      <c r="J59" t="n">
+        <v>311</v>
+      </c>
+      <c r="K59" t="n">
+        <v>76.41080272793964</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2551,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3563896417.547246</v>
+        <v>2677669681.928138</v>
       </c>
       <c r="F60" t="n">
-        <v>0.166530367817955</v>
+        <v>0.1841199358403665</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03328092827078166</v>
+        <v>0.02374050902219428</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>54</v>
+      </c>
+      <c r="J60" t="n">
+        <v>310</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3385149027.438322</v>
+        <v>2349747411.082117</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1212208358590874</v>
+        <v>0.1698148919492412</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02459320161795301</v>
+        <v>0.02525086861442801</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>281</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1340705509.2549</v>
+        <v>1692865010.686942</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1317116032785194</v>
+        <v>0.1356961080572816</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04224198226287496</v>
+        <v>0.03795343159913708</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2650,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5143641494.500586</v>
+        <v>4513445192.756253</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08859008579850643</v>
+        <v>0.08409014692956815</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03012691913595543</v>
+        <v>0.03360751124614708</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>152</v>
+      </c>
+      <c r="J63" t="n">
+        <v>311</v>
+      </c>
+      <c r="K63" t="n">
+        <v>75.26232639653647</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5170235892.295224</v>
+        <v>5512471364.565779</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1875546181253337</v>
+        <v>0.1500016085024849</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03468879346871391</v>
+        <v>0.02847749869603068</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>153</v>
+      </c>
+      <c r="J64" t="n">
+        <v>312</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2722,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4318633248.751563</v>
+        <v>5101968528.886909</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1691509259730662</v>
+        <v>0.166149322616763</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02687195770214338</v>
+        <v>0.02097732051257522</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>246</v>
+      </c>
+      <c r="J65" t="n">
+        <v>312</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2757,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4080845307.153723</v>
+        <v>4216236447.193805</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1334454233523824</v>
+        <v>0.116241222685531</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04178999054104982</v>
+        <v>0.03452419045469771</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>154</v>
+      </c>
+      <c r="J66" t="n">
+        <v>311</v>
+      </c>
+      <c r="K66" t="n">
+        <v>72.29833770655247</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3078616155.775173</v>
+        <v>3387272624.546076</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1016275611682862</v>
+        <v>0.09878394306204939</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04547091312620532</v>
+        <v>0.03873725893042047</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>9</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2829,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3877870347.666553</v>
+        <v>4917119483.796864</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1018252801738955</v>
+        <v>0.1447025229629123</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04339951343250719</v>
+        <v>0.03303145908645041</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>167</v>
+      </c>
+      <c r="J68" t="n">
+        <v>312</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2870,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1870530538.916611</v>
+        <v>2070343180.212735</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1409667992302596</v>
+        <v>0.1651284817612262</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0391725449361162</v>
+        <v>0.05546787205941894</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2899,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2951874714.697848</v>
+        <v>3087257788.785127</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09537662273585287</v>
+        <v>0.1028920648577404</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04413040719130111</v>
+        <v>0.03818163958976855</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>46</v>
+      </c>
+      <c r="J70" t="n">
+        <v>303</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2934,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5108353476.575242</v>
+        <v>3701336487.055522</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1730651681492584</v>
+        <v>0.154582517381379</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03129961220580438</v>
+        <v>0.02644719311766982</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>231</v>
+      </c>
+      <c r="J71" t="n">
+        <v>312</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2969,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1596527603.167277</v>
+        <v>2091642624.666733</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0700144797235399</v>
+        <v>0.08138937413427114</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0507641021336691</v>
+        <v>0.04993096195979589</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,22 +3004,31 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3093074573.331489</v>
+        <v>3020010936.220673</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1025912144500708</v>
+        <v>0.09580533592528455</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05117503072092382</v>
+        <v>0.03519291195554991</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>311</v>
+      </c>
+      <c r="K73" t="n">
+        <v>57.99369683500904</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +3041,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2763930135.031612</v>
+        <v>2796998255.826817</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1358992225866349</v>
+        <v>0.1728771293194849</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0273564399916977</v>
+        <v>0.03292517256420246</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>82</v>
+      </c>
+      <c r="J74" t="n">
+        <v>311</v>
+      </c>
+      <c r="K74" t="n">
+        <v>45.04813494815059</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1955874984.170165</v>
+        <v>1564492207.597099</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1519214067053092</v>
+        <v>0.1412586004956306</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02976808608357374</v>
+        <v>0.03089927662229</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3113,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3758819409.511039</v>
+        <v>3686696117.475279</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09109008249199979</v>
+        <v>0.1028363135818352</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02330759963249667</v>
+        <v>0.02356538773599647</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>147</v>
+      </c>
+      <c r="J76" t="n">
+        <v>311</v>
+      </c>
+      <c r="K76" t="n">
+        <v>62.22142627162982</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1689895443.859115</v>
+        <v>1790805710.997325</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1511469212653838</v>
+        <v>0.1781681953617902</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02805905837506806</v>
+        <v>0.02533558786484685</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3978278601.613012</v>
+        <v>3128489308.703143</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1104420689325269</v>
+        <v>0.09727720102670487</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04389555052663695</v>
+        <v>0.05491438140162294</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>155</v>
+      </c>
+      <c r="J78" t="n">
+        <v>311</v>
+      </c>
+      <c r="K78" t="n">
+        <v>46.57925806233251</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1565394064.587023</v>
+        <v>1328735179.996348</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1335149485841572</v>
+        <v>0.1174283751692422</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03761344151377521</v>
+        <v>0.027456140898185</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4358532469.580168</v>
+        <v>3399277347.388431</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07554494064678875</v>
+        <v>0.07934151435947352</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02556378587100087</v>
+        <v>0.03300756893437266</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>152</v>
+      </c>
+      <c r="J80" t="n">
+        <v>312</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3562563474.947429</v>
+        <v>4706845723.952586</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1293653284082507</v>
+        <v>0.09260629867420622</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0198881505299797</v>
+        <v>0.03307352235022737</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>144</v>
+      </c>
+      <c r="J81" t="n">
+        <v>311</v>
+      </c>
+      <c r="K81" t="n">
+        <v>72.66198209294477</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3329,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3631288168.30951</v>
+        <v>5053297217.990321</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2088325175063135</v>
+        <v>0.1391427933404422</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02278852563393254</v>
+        <v>0.02360189233755939</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>226</v>
+      </c>
+      <c r="J82" t="n">
+        <v>312</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3370,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2369045892.879654</v>
+        <v>2188425101.368021</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1176528916827303</v>
+        <v>0.1281435411849787</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04336237925017738</v>
+        <v>0.03334320866019636</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2010956074.238518</v>
+        <v>2090289743.713171</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1196223417062947</v>
+        <v>0.08659910608369729</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05065632641108187</v>
+        <v>0.04490926813071207</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,16 +3440,25 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2637446903.278813</v>
+        <v>3106662104.475544</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1160233506140331</v>
+        <v>0.1725161026831062</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03538712609019465</v>
+        <v>0.03570935482709388</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>41</v>
+      </c>
+      <c r="J85" t="n">
+        <v>311</v>
+      </c>
+      <c r="K85" t="n">
+        <v>61.54700204471667</v>
       </c>
     </row>
     <row r="86">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1888274392.271202</v>
+        <v>2464143923.473337</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1413747286895511</v>
+        <v>0.1531234193385926</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02555427585047625</v>
+        <v>0.01723968922213322</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1197239028.685666</v>
+        <v>1023511571.357247</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1243549997265486</v>
+        <v>0.1156105585655491</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04411295065521716</v>
+        <v>0.03328996985748039</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2510482924.499868</v>
+        <v>3024975968.823458</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1230187497068921</v>
+        <v>0.1308219552943193</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02878906178045837</v>
+        <v>0.02992929187719046</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>43</v>
+      </c>
+      <c r="J88" t="n">
+        <v>300</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2623629238.026492</v>
+        <v>2626872975.692206</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1297120393781675</v>
+        <v>0.1361081054699484</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02894908115705147</v>
+        <v>0.03299131407973333</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>22</v>
+      </c>
+      <c r="J89" t="n">
+        <v>295</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1897857586.109579</v>
+        <v>2020343368.744199</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1255826226706899</v>
+        <v>0.1095783717650779</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03703325101031819</v>
+        <v>0.04678693696934386</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1893039106.191321</v>
+        <v>1883446969.198894</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1586003235943388</v>
+        <v>0.1359399294300191</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05225201317135018</v>
+        <v>0.05939283647818287</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1851973640.953624</v>
+        <v>2545215745.913947</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07979458600395505</v>
+        <v>0.06898423568104933</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03189849029151057</v>
+        <v>0.03875660738761848</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3722,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3384528625.845015</v>
+        <v>4860788773.047264</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1419437608482697</v>
+        <v>0.1159879574076392</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05362551037881852</v>
+        <v>0.03435868395018007</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>139</v>
+      </c>
+      <c r="J93" t="n">
+        <v>312</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3757,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2313215284.643533</v>
+        <v>2416907905.086166</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1204300748545286</v>
+        <v>0.1512258746882504</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03485061981972003</v>
+        <v>0.03167927419206126</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2765903504.176993</v>
+        <v>2709732987.677624</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1235947070635026</v>
+        <v>0.1120835301523832</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03975670590561173</v>
+        <v>0.05118081294153296</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1955917662.924118</v>
+        <v>2338268747.156442</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09141536316279532</v>
+        <v>0.09064752958797789</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03921635436445846</v>
+        <v>0.04151138694286948</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4260034399.885708</v>
+        <v>3975074388.890261</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1463913573479276</v>
+        <v>0.1697211174819513</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02717184475959918</v>
+        <v>0.02232870660441344</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>158</v>
+      </c>
+      <c r="J97" t="n">
+        <v>311</v>
+      </c>
+      <c r="K97" t="n">
+        <v>77.71155127963002</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3468837482.831621</v>
+        <v>3459027432.925404</v>
       </c>
       <c r="F98" t="n">
-        <v>0.122333943348089</v>
+        <v>0.08984285578241528</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03083294508095986</v>
+        <v>0.02182975354008757</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>76</v>
+      </c>
+      <c r="J98" t="n">
+        <v>312</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3333306647.373053</v>
+        <v>3178998016.669446</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1414541253962219</v>
+        <v>0.099136812226806</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02292201569826587</v>
+        <v>0.03430527435357375</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3196379280.642994</v>
+        <v>3379441492.424719</v>
       </c>
       <c r="F100" t="n">
-        <v>0.158091770520288</v>
+        <v>0.1113165178673443</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02658499272990251</v>
+        <v>0.02820352931271643</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>136</v>
+      </c>
+      <c r="J100" t="n">
+        <v>311</v>
+      </c>
+      <c r="K100" t="n">
+        <v>56.36838871893435</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2765382789.691106</v>
+        <v>3025547285.82285</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1461852939265463</v>
+        <v>0.1990120684894682</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03886051210194989</v>
+        <v>0.04838111696990037</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>29</v>
+      </c>
+      <c r="J101" t="n">
+        <v>310</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
